--- a/xlsx/FR/vote_non_voters_FR.xlsx
+++ b/xlsx/FR/vote_non_voters_FR.xlsx
@@ -12,30 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">In 2020, voted for (non-voters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippe Poutou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Dupont-Aignan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie Arthaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marine Le Pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Lassalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Luc Mélenchon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">François Fillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel Macron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benoît Hamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNR</t>
   </si>
 </sst>
 </file>
@@ -374,67 +386,85 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0148777589735421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0175409619849062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.0384855315667685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.150034339626718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.00790366004545425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B7" t="n">
+        <v>0.0285774974184794</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00515242021126691</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.125180510504226</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0771541103297623</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.57291292969496</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/vote_non_voters_FR.xlsx
+++ b/xlsx/FR/vote_non_voters_FR.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">In 2020, voted for (non-voters)</t>
+    <t xml:space="preserve">Vote in last election (non-voters)</t>
   </si>
   <si>
     <t xml:space="preserve">Philippe Poutou</t>
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0148777589735421</v>
+        <v>0.0367600129658664</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0175409619849062</v>
+        <v>0.0599816804560082</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0384855315667685</v>
+        <v>0.032620507342</v>
       </c>
     </row>
     <row r="5">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.150034339626718</v>
+        <v>0.317071029233698</v>
       </c>
     </row>
     <row r="6">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00790366004545425</v>
+        <v>0.0101125129657735</v>
       </c>
     </row>
     <row r="7">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0285774974184794</v>
+        <v>0.164932220241253</v>
       </c>
     </row>
     <row r="8">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00515242021126691</v>
+        <v>0.0216982253946836</v>
       </c>
     </row>
     <row r="9">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125180510504226</v>
+        <v>0.291551963590317</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0771541103297623</v>
+        <v>0.0652718478104005</v>
       </c>
     </row>
     <row r="11">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>3.57291292969496</v>
+        <v>7.12468109266587</v>
       </c>
     </row>
   </sheetData>
